--- a/data/trans_orig/CoPsoQ_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R2-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>188455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>170705</v>
+        <v>169165</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>204929</v>
+        <v>204950</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6284667709036214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5692736909293842</v>
+        <v>0.5641375059952335</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6834077414694024</v>
+        <v>0.6834757645866084</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -764,19 +764,19 @@
         <v>107957</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94684</v>
+        <v>95570</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122170</v>
+        <v>120834</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5735695699404819</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5030549143302727</v>
+        <v>0.5077621981077416</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6490825806783467</v>
+        <v>0.6419865388029075</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>274</v>
@@ -785,19 +785,19 @@
         <v>296411</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>273507</v>
+        <v>272825</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>318201</v>
+        <v>317112</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.607296819444558</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5603704958089616</v>
+        <v>0.558973072581916</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6519403505727487</v>
+        <v>0.6497100271337237</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>111409</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94935</v>
+        <v>94914</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>129159</v>
+        <v>130699</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3715332290963787</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3165922585305974</v>
+        <v>0.3165242354133916</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4307263090706157</v>
+        <v>0.4358624940047665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -835,19 +835,19 @@
         <v>80262</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66049</v>
+        <v>67385</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93535</v>
+        <v>92649</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4264304300595181</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3509174193216533</v>
+        <v>0.3580134611970925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4969450856697273</v>
+        <v>0.4922378018922584</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>176</v>
@@ -856,19 +856,19 @@
         <v>191672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>169882</v>
+        <v>170971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>214576</v>
+        <v>215258</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.392703180555442</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3480596494272514</v>
+        <v>0.3502899728662762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4396295041910385</v>
+        <v>0.4410269274180841</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>173062</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>155476</v>
+        <v>156548</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>187785</v>
+        <v>189235</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6829206969010106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6135274988067596</v>
+        <v>0.6177545385329053</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7410196187904667</v>
+        <v>0.7467435377474635</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -981,19 +981,19 @@
         <v>81982</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67649</v>
+        <v>68176</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94785</v>
+        <v>95379</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4970318973737257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4101345007043152</v>
+        <v>0.4133289385670992</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5746534808783081</v>
+        <v>0.5782560839092226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>235</v>
@@ -1002,19 +1002,19 @@
         <v>255044</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>233927</v>
+        <v>232607</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>276984</v>
+        <v>275024</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6096315291059117</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.559157075798866</v>
+        <v>0.5560001995700434</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6620750911653052</v>
+        <v>0.6573901184115957</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>80352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65629</v>
+        <v>64179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>97938</v>
+        <v>96866</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3170793030989893</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2589803812095333</v>
+        <v>0.2532564622525365</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3864725011932404</v>
+        <v>0.3822454614670947</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -1052,19 +1052,19 @@
         <v>82961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>70158</v>
+        <v>69564</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>97294</v>
+        <v>96767</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5029681026262743</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4253465191216917</v>
+        <v>0.4217439160907774</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5898654992956848</v>
+        <v>0.5866710614329008</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>143</v>
@@ -1073,19 +1073,19 @@
         <v>163313</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>141373</v>
+        <v>143333</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184430</v>
+        <v>185750</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3903684708940883</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3379249088346953</v>
+        <v>0.3426098815884044</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4408429242011341</v>
+        <v>0.4439998004299566</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>151250</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>134445</v>
+        <v>133567</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>167722</v>
+        <v>166283</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5524557118654649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4910717495443416</v>
+        <v>0.4878671469123724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6126216366581883</v>
+        <v>0.6073626970741505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -1198,19 +1198,19 @@
         <v>61417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51163</v>
+        <v>50704</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71713</v>
+        <v>71411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5767663492247863</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.480474539947416</v>
+        <v>0.4761626205388398</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6734527111719021</v>
+        <v>0.6706158097595255</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -1219,19 +1219,19 @@
         <v>212668</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>192964</v>
+        <v>193963</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>231657</v>
+        <v>233020</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5592634246772069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5074479243983777</v>
+        <v>0.5100752248786324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6092005533091041</v>
+        <v>0.6127844466870257</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>122528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106056</v>
+        <v>107495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>139333</v>
+        <v>140211</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4475442881345351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3873783633418117</v>
+        <v>0.3926373029258496</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5089282504556585</v>
+        <v>0.5121328530876277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -1269,19 +1269,19 @@
         <v>45068</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34772</v>
+        <v>35074</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55322</v>
+        <v>55781</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4232336507752137</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3265472888280979</v>
+        <v>0.3293841902404745</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5195254600525838</v>
+        <v>0.5238373794611599</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>162</v>
@@ -1290,19 +1290,19 @@
         <v>167596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>148607</v>
+        <v>147244</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>187300</v>
+        <v>186301</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.440736575322793</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3907994466908959</v>
+        <v>0.3872155533129741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4925520756016223</v>
+        <v>0.4899247751213673</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>217332</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>196641</v>
+        <v>195552</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>240587</v>
+        <v>237151</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5263098296777973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4762025448680177</v>
+        <v>0.4735647234532881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5826249366653397</v>
+        <v>0.5743048572086175</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -1415,19 +1415,19 @@
         <v>170799</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>152999</v>
+        <v>153523</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>188236</v>
+        <v>188489</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5794021654172763</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5190174785211954</v>
+        <v>0.5207960556133827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6385544200048594</v>
+        <v>0.6394109977943717</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>372</v>
@@ -1436,19 +1436,19 @@
         <v>388131</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>360160</v>
+        <v>358773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>414929</v>
+        <v>413659</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.548424245195844</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5089006208838149</v>
+        <v>0.5069418346686472</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5862892298935953</v>
+        <v>0.5844947884701408</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>195604</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172349</v>
+        <v>175785</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216295</v>
+        <v>217384</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4736901703222028</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4173750633346604</v>
+        <v>0.4256951427913822</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5237974551319823</v>
+        <v>0.5264352765467116</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -1486,19 +1486,19 @@
         <v>123986</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106549</v>
+        <v>106296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141786</v>
+        <v>141262</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4205978345827237</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3614455799951407</v>
+        <v>0.3605890022056285</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4809825214788048</v>
+        <v>0.4792039443866175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>294</v>
@@ -1507,19 +1507,19 @@
         <v>319590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292792</v>
+        <v>294062</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>347561</v>
+        <v>348948</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.451575754804156</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4137107701064047</v>
+        <v>0.4155052115298592</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.491099379116185</v>
+        <v>0.4930581653313528</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>79908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66648</v>
+        <v>67021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91561</v>
+        <v>93275</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5333332045502881</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4448298348633781</v>
+        <v>0.4473170188396378</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6111084987768727</v>
+        <v>0.6225447185410532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -1632,19 +1632,19 @@
         <v>80925</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67111</v>
+        <v>67642</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>94462</v>
+        <v>93523</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4718271380814597</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3912842478579878</v>
+        <v>0.3943827928332794</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5507555552652534</v>
+        <v>0.5452793844266821</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>146</v>
@@ -1653,19 +1653,19 @@
         <v>160833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>142607</v>
+        <v>141304</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178619</v>
+        <v>178479</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.500504727666517</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4437849507048231</v>
+        <v>0.4397312112307227</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5558525504369282</v>
+        <v>0.5554177721003504</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>69920</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58267</v>
+        <v>56553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83180</v>
+        <v>82807</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4666667954497118</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3888915012231273</v>
+        <v>0.3774552814589469</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.555170165136622</v>
+        <v>0.5526829811603622</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>83</v>
@@ -1703,19 +1703,19 @@
         <v>90589</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77052</v>
+        <v>77991</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>104403</v>
+        <v>103872</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5281728619185403</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4492444447347466</v>
+        <v>0.4547206155733179</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.608715752142012</v>
+        <v>0.6056172071667202</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>151</v>
@@ -1724,19 +1724,19 @@
         <v>160509</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>142723</v>
+        <v>142863</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178735</v>
+        <v>180038</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.499495272333483</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4441474495630718</v>
+        <v>0.4445822278996498</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5562150492951764</v>
+        <v>0.5602687887692774</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>810007</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5828143100462408</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>465</v>
@@ -1849,19 +1849,19 @@
         <v>503080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5433142340123405</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1233</v>
@@ -1870,19 +1870,19 @@
         <v>1313087</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5670204211383862</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>579813</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>545330</v>
+        <v>543921</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>617230</v>
+        <v>622281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4171856899537592</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3923746592438774</v>
+        <v>0.3913605053264275</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4441080603005515</v>
+        <v>0.4477423583425383</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>389</v>
@@ -1920,19 +1920,19 @@
         <v>422867</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>392396</v>
+        <v>392037</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>454484</v>
+        <v>451944</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4566857659876595</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4237782831520274</v>
+        <v>0.4233900381676505</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4908313897992688</v>
+        <v>0.4880887981687831</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>926</v>
@@ -1941,19 +1941,19 @@
         <v>1002680</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>957445</v>
+        <v>955890</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1054842</v>
+        <v>1055577</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4329795788616138</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4134460668921436</v>
+        <v>0.4127748497834844</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4555045369547215</v>
+        <v>0.455821665855491</v>
       </c>
     </row>
     <row r="21">
@@ -2286,19 +2286,19 @@
         <v>155441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137667</v>
+        <v>139456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173113</v>
+        <v>173551</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5630840148770018</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4986994981987351</v>
+        <v>0.5051783495662566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6270998407763586</v>
+        <v>0.6286865096904908</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -2307,19 +2307,19 @@
         <v>122440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108064</v>
+        <v>108179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138125</v>
+        <v>136618</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.571683215828393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5045637948490906</v>
+        <v>0.5050965650603022</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6449212278204867</v>
+        <v>0.6378845502051734</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>263</v>
@@ -2328,19 +2328,19 @@
         <v>277881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>252141</v>
+        <v>253895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>298926</v>
+        <v>298540</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5668409041015176</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5143351414537591</v>
+        <v>0.5179129996671541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6097708520225199</v>
+        <v>0.6089833816470391</v>
       </c>
     </row>
     <row r="5">
@@ -2357,19 +2357,19 @@
         <v>120612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102940</v>
+        <v>102502</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>138386</v>
+        <v>136597</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4369159851229982</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3729001592236413</v>
+        <v>0.3713134903095091</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5013005018012648</v>
+        <v>0.4948216504337433</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -2378,19 +2378,19 @@
         <v>91734</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76049</v>
+        <v>77556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106110</v>
+        <v>105995</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4283167841716071</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3550787721795133</v>
+        <v>0.3621154497948265</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4954362051509093</v>
+        <v>0.4949034349396977</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>198</v>
@@ -2399,19 +2399,19 @@
         <v>212346</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>191301</v>
+        <v>191687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>238086</v>
+        <v>236332</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4331590958984824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3902291479774801</v>
+        <v>0.3910166183529608</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4856648585462409</v>
+        <v>0.4820870003328458</v>
       </c>
     </row>
     <row r="6">
@@ -2503,19 +2503,19 @@
         <v>141310</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125587</v>
+        <v>127052</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>157164</v>
+        <v>157218</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5809557765743751</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5163142059222268</v>
+        <v>0.5223396896878911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.646135425817478</v>
+        <v>0.6463570132831582</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -2524,19 +2524,19 @@
         <v>105426</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91047</v>
+        <v>91824</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118335</v>
+        <v>118970</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5572891144874783</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4812799399244683</v>
+        <v>0.4853885243717708</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6255268976528442</v>
+        <v>0.6288830420156529</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>232</v>
@@ -2545,19 +2545,19 @@
         <v>246736</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>226634</v>
+        <v>224438</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>267101</v>
+        <v>266749</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5706018625738792</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.524114569087718</v>
+        <v>0.5190357821624338</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6176981434592236</v>
+        <v>0.6168836758471242</v>
       </c>
     </row>
     <row r="8">
@@ -2574,19 +2574,19 @@
         <v>101927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86073</v>
+        <v>86019</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>117650</v>
+        <v>116185</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4190442234256249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3538645741825222</v>
+        <v>0.3536429867168419</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4836857940777732</v>
+        <v>0.4776603103121089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -2595,19 +2595,19 @@
         <v>83750</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>70841</v>
+        <v>70206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98129</v>
+        <v>97352</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4427108855125217</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3744731023471558</v>
+        <v>0.371116957984347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5187200600755317</v>
+        <v>0.5146114756282291</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>173</v>
@@ -2616,19 +2616,19 @@
         <v>185677</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>165312</v>
+        <v>165664</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>205779</v>
+        <v>207975</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4293981374261208</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3823018565407765</v>
+        <v>0.3831163241528758</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.475885430912282</v>
+        <v>0.4809642178375661</v>
       </c>
     </row>
     <row r="9">
@@ -2720,19 +2720,19 @@
         <v>129415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>115308</v>
+        <v>114467</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143763</v>
+        <v>145423</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5982442645912337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5330299286218035</v>
+        <v>0.5291443330351772</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6645684345529411</v>
+        <v>0.6722447415277987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -2741,19 +2741,19 @@
         <v>30420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22677</v>
+        <v>23077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38411</v>
+        <v>39165</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4671470213626056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3482442169420439</v>
+        <v>0.3543888742699997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5898644727548029</v>
+        <v>0.6014400688033201</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -2762,19 +2762,19 @@
         <v>159835</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143773</v>
+        <v>142559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177838</v>
+        <v>176593</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5679121132525009</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5108406675925794</v>
+        <v>0.5065288866516838</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.631878385691213</v>
+        <v>0.6274542830132843</v>
       </c>
     </row>
     <row r="11">
@@ -2791,19 +2791,19 @@
         <v>86910</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72562</v>
+        <v>70902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>101017</v>
+        <v>101858</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4017557354087664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3354315654470588</v>
+        <v>0.3277552584722015</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4669700713781965</v>
+        <v>0.4708556669648229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -2812,19 +2812,19 @@
         <v>34698</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26707</v>
+        <v>25953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42441</v>
+        <v>42041</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5328529786373943</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4101355272451969</v>
+        <v>0.3985599311966799</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.651755783057956</v>
+        <v>0.6456111257299997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>115</v>
@@ -2833,19 +2833,19 @@
         <v>121608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>103605</v>
+        <v>104850</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>137670</v>
+        <v>138884</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4320878867474992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.368121614308787</v>
+        <v>0.3725457169867156</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4891593324074206</v>
+        <v>0.4934711133483162</v>
       </c>
     </row>
     <row r="12">
@@ -2937,19 +2937,19 @@
         <v>266116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>244658</v>
+        <v>243725</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>288990</v>
+        <v>289710</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5456535302762667</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5016565963440899</v>
+        <v>0.4997435156692225</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5925559041999249</v>
+        <v>0.5940318927436918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>224</v>
@@ -2958,19 +2958,19 @@
         <v>226610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>207483</v>
+        <v>209041</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>244442</v>
+        <v>245123</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6209487066217813</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5685381682080234</v>
+        <v>0.5728050001985504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6698114603383059</v>
+        <v>0.6716771239792264</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>476</v>
@@ -2979,19 +2979,19 @@
         <v>492725</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>461064</v>
+        <v>460795</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>520798</v>
+        <v>519961</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5778808095433728</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5407471675308451</v>
+        <v>0.5404317515429669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6108046166635461</v>
+        <v>0.6098234568873779</v>
       </c>
     </row>
     <row r="14">
@@ -3008,19 +3008,19 @@
         <v>221585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>198711</v>
+        <v>197991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>243043</v>
+        <v>243976</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4543464697237333</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4074440958000748</v>
+        <v>0.4059681072563081</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.49834340365591</v>
+        <v>0.5002564843307774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -3029,19 +3029,19 @@
         <v>138332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120500</v>
+        <v>119819</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157459</v>
+        <v>155901</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3790512933782188</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3301885396616942</v>
+        <v>0.3283228760207736</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4314618317919766</v>
+        <v>0.4271949998014496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>347</v>
@@ -3050,19 +3050,19 @@
         <v>359917</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>331844</v>
+        <v>332681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>391578</v>
+        <v>391847</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4221191904566272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3891953833364538</v>
+        <v>0.390176543112622</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.459252832469155</v>
+        <v>0.4595682484570328</v>
       </c>
     </row>
     <row r="15">
@@ -3154,19 +3154,19 @@
         <v>85649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72574</v>
+        <v>70105</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98933</v>
+        <v>99837</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4437272993106205</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3759864680756421</v>
+        <v>0.3631964596873026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5125473136011446</v>
+        <v>0.5172317753936035</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -3175,19 +3175,19 @@
         <v>84359</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70894</v>
+        <v>70266</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97919</v>
+        <v>97689</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4268771740180629</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3587397748895927</v>
+        <v>0.3555613497138462</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4954951704575996</v>
+        <v>0.4943294608551363</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>160</v>
@@ -3196,19 +3196,19 @@
         <v>170008</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>147871</v>
+        <v>147668</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>190608</v>
+        <v>189067</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4352030855419499</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3785341405228584</v>
+        <v>0.3780165848154938</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4879373548586679</v>
+        <v>0.4839921546597433</v>
       </c>
     </row>
     <row r="17">
@@ -3225,19 +3225,19 @@
         <v>107373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>94089</v>
+        <v>93185</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120448</v>
+        <v>122917</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5562727006893795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4874526863988555</v>
+        <v>0.4827682246063965</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.624013531924358</v>
+        <v>0.6368035403126975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -3246,19 +3246,19 @@
         <v>113260</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99700</v>
+        <v>99930</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126725</v>
+        <v>127353</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5731228259819371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5045048295424004</v>
+        <v>0.5056705391448637</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6412602251104074</v>
+        <v>0.6444386502861539</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>208</v>
@@ -3267,19 +3267,19 @@
         <v>220632</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>200032</v>
+        <v>201573</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>242769</v>
+        <v>242972</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5647969144580501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5120626451413324</v>
+        <v>0.5160078453402569</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6214658594771416</v>
+        <v>0.6219834151845063</v>
       </c>
     </row>
     <row r="18">
@@ -3371,19 +3371,19 @@
         <v>777931</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5492552692122116</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>556</v>
@@ -3392,19 +3392,19 @@
         <v>569254</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>535373</v>
+        <v>539073</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>600352</v>
+        <v>603489</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5521225854072881</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5192613202925537</v>
+        <v>0.5228493024429979</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5822839487273128</v>
+        <v>0.5853264370964006</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1283</v>
@@ -3413,19 +3413,19 @@
         <v>1347184</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1294260</v>
+        <v>1297827</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1397974</v>
+        <v>1397298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5504632151470372</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5288383436522964</v>
+        <v>0.5302956706061165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5712158295252824</v>
+        <v>0.5709398576857776</v>
       </c>
     </row>
     <row r="20">
@@ -3442,19 +3442,19 @@
         <v>638406</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>595207</v>
+        <v>599689</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>675486</v>
+        <v>676082</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4507447307877884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4202440721160052</v>
+        <v>0.423408136594807</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4769245097167036</v>
+        <v>0.4773453029402996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>451</v>
@@ -3463,19 +3463,19 @@
         <v>461775</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>430677</v>
+        <v>427540</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>495656</v>
+        <v>491956</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.447877414592712</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4177160512726872</v>
+        <v>0.4146735629035993</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4807386797074463</v>
+        <v>0.477150697557002</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1041</v>
@@ -3484,19 +3484,19 @@
         <v>1100181</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1049391</v>
+        <v>1050067</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1153105</v>
+        <v>1149538</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4495367848529628</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4287841704747176</v>
+        <v>0.4290601423142225</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4711616563477036</v>
+        <v>0.4697043293938836</v>
       </c>
     </row>
     <row r="21">
@@ -3829,19 +3829,19 @@
         <v>38226</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27304</v>
+        <v>27974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50195</v>
+        <v>51082</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.388452517794263</v>
+        <v>0.3884525177942632</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2774617382892911</v>
+        <v>0.2842691587881507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5100889526452902</v>
+        <v>0.5191009160378228</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -3850,19 +3850,19 @@
         <v>30245</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22775</v>
+        <v>22855</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38224</v>
+        <v>38614</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3573753872055571</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2691100118827357</v>
+        <v>0.2700604594136497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4516632477246108</v>
+        <v>0.4562656545811667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -3871,19 +3871,19 @@
         <v>68470</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54131</v>
+        <v>55377</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83328</v>
+        <v>82454</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3740833361476351</v>
+        <v>0.374083336147635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.295743970726261</v>
+        <v>0.3025511608435149</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4552595076359206</v>
+        <v>0.450482261312077</v>
       </c>
     </row>
     <row r="5">
@@ -3900,19 +3900,19 @@
         <v>60179</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48210</v>
+        <v>47323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71101</v>
+        <v>70431</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6115474822057371</v>
+        <v>0.6115474822057373</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4899110473547101</v>
+        <v>0.4808990839621771</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.722538261710709</v>
+        <v>0.7157308412118494</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -3921,19 +3921,19 @@
         <v>54385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46406</v>
+        <v>46016</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61855</v>
+        <v>61775</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6426246127944431</v>
+        <v>0.6426246127944429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5483367522753894</v>
+        <v>0.5437343454188333</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7308899881172647</v>
+        <v>0.7299395405863502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>117</v>
@@ -3942,19 +3942,19 @@
         <v>114565</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99707</v>
+        <v>100581</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>128904</v>
+        <v>127658</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6259166638523652</v>
+        <v>0.6259166638523649</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5447404923640795</v>
+        <v>0.5495177386879226</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.704256029273739</v>
+        <v>0.6974488391564848</v>
       </c>
     </row>
     <row r="6">
@@ -4046,19 +4046,19 @@
         <v>26832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18029</v>
+        <v>17822</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35936</v>
+        <v>36544</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3706841713023288</v>
+        <v>0.3706841713023289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2490741745826307</v>
+        <v>0.2462144924374075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4964486403359639</v>
+        <v>0.5048430138694769</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -4067,19 +4067,19 @@
         <v>26949</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20035</v>
+        <v>19721</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34548</v>
+        <v>34087</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4031811773741916</v>
+        <v>0.4031811773741915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2997440201340786</v>
+        <v>0.2950488998318552</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5168753358831862</v>
+        <v>0.5099725823680613</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -4088,19 +4088,19 @@
         <v>53782</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42462</v>
+        <v>42792</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65302</v>
+        <v>66671</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3862855646548673</v>
+        <v>0.3862855646548674</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3049784859535116</v>
+        <v>0.3073527552917577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4690288754492441</v>
+        <v>0.478862124912289</v>
       </c>
     </row>
     <row r="8">
@@ -4117,19 +4117,19 @@
         <v>45554</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36450</v>
+        <v>35842</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54357</v>
+        <v>54564</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6293158286976711</v>
+        <v>0.6293158286976713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5035513596640359</v>
+        <v>0.4951569861305233</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7509258254173692</v>
+        <v>0.7537855075625923</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -4138,19 +4138,19 @@
         <v>39892</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32293</v>
+        <v>32754</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46806</v>
+        <v>47120</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5968188226258085</v>
+        <v>0.5968188226258084</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4831246641168138</v>
+        <v>0.4900274176319386</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7002559798659215</v>
+        <v>0.7049511001681449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>92</v>
@@ -4159,19 +4159,19 @@
         <v>85446</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>73926</v>
+        <v>72557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>96766</v>
+        <v>96436</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6137144353451327</v>
+        <v>0.6137144353451326</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5309711245507561</v>
+        <v>0.5211378750877109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6950215140464884</v>
+        <v>0.6926472447082422</v>
       </c>
     </row>
     <row r="9">
@@ -4263,19 +4263,19 @@
         <v>30312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21103</v>
+        <v>21332</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40493</v>
+        <v>41420</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4372923411034613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3044309661090869</v>
+        <v>0.3077381694139864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5841598905812692</v>
+        <v>0.5975396985403651</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -4284,19 +4284,19 @@
         <v>17305</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12130</v>
+        <v>12064</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21640</v>
+        <v>21805</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6195702173465882</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4342912974249389</v>
+        <v>0.4319288425049367</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7747765336060638</v>
+        <v>0.7806906346593667</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -4305,19 +4305,19 @@
         <v>47617</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36350</v>
+        <v>37382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58475</v>
+        <v>59375</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4896450165502062</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3737787161037736</v>
+        <v>0.3843975516986223</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6012875862950825</v>
+        <v>0.6105501763285998</v>
       </c>
     </row>
     <row r="11">
@@ -4334,19 +4334,19 @@
         <v>39006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28825</v>
+        <v>27898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48215</v>
+        <v>47986</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5627076588965385</v>
+        <v>0.5627076588965386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4158401094187306</v>
+        <v>0.4024603014596341</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.695569033890913</v>
+        <v>0.6922618305860135</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -4355,19 +4355,19 @@
         <v>10626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6291</v>
+        <v>6126</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15801</v>
+        <v>15867</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3804297826534118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2252234663939361</v>
+        <v>0.2193093653406331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.565708702575061</v>
+        <v>0.5680711574950633</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -4376,19 +4376,19 @@
         <v>49632</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38774</v>
+        <v>37874</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60899</v>
+        <v>59867</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5103549834497937</v>
+        <v>0.5103549834497938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3987124137049174</v>
+        <v>0.3894498236714004</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6262212838962263</v>
+        <v>0.615602448301378</v>
       </c>
     </row>
     <row r="12">
@@ -4480,19 +4480,19 @@
         <v>53691</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40459</v>
+        <v>40762</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66353</v>
+        <v>67369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4012568051981942</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3023672905495568</v>
+        <v>0.3046283208584247</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4958784803161115</v>
+        <v>0.5034723974576348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -4501,19 +4501,19 @@
         <v>61468</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52401</v>
+        <v>51622</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70574</v>
+        <v>70833</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5443199334216098</v>
+        <v>0.5443199334216099</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4640223512683126</v>
+        <v>0.4571250964613501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6249527310278999</v>
+        <v>0.6272431880877088</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -4522,19 +4522,19 @@
         <v>115160</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97934</v>
+        <v>99867</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129143</v>
+        <v>131553</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4667348430920639</v>
+        <v>0.466734843092064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3969181109985838</v>
+        <v>0.4047535194807691</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5234084643970133</v>
+        <v>0.5331759702138335</v>
       </c>
     </row>
     <row r="14">
@@ -4551,19 +4551,19 @@
         <v>80117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>67455</v>
+        <v>66439</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93349</v>
+        <v>93046</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5987431948018059</v>
+        <v>0.5987431948018058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5041215196838886</v>
+        <v>0.4965276025423653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6976327094504433</v>
+        <v>0.6953716791415754</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -4572,19 +4572,19 @@
         <v>51459</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42353</v>
+        <v>42094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60526</v>
+        <v>61305</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4556800665783901</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.375047268972099</v>
+        <v>0.3727568119122911</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5359776487316871</v>
+        <v>0.5428749035386496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -4593,19 +4593,19 @@
         <v>131575</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117592</v>
+        <v>115182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>148801</v>
+        <v>146868</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5332651569079361</v>
+        <v>0.533265156907936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4765915356029868</v>
+        <v>0.4668240297861667</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6030818890014163</v>
+        <v>0.595246480519231</v>
       </c>
     </row>
     <row r="15">
@@ -4697,19 +4697,19 @@
         <v>37861</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26884</v>
+        <v>26491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50683</v>
+        <v>50153</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.40977453056412</v>
+        <v>0.4097745305641201</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2909697118276498</v>
+        <v>0.286713010493951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5485462088495385</v>
+        <v>0.5428158629858886</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -4718,19 +4718,19 @@
         <v>41023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32385</v>
+        <v>32791</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48700</v>
+        <v>48880</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4778585156797343</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3772453837245799</v>
+        <v>0.3819759802486136</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5672906918656653</v>
+        <v>0.5693813705442762</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -4739,19 +4739,19 @@
         <v>78884</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65157</v>
+        <v>63603</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93412</v>
+        <v>93173</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4425660064128094</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3655525390287676</v>
+        <v>0.3568342283794332</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5240761532764667</v>
+        <v>0.5227304538044943</v>
       </c>
     </row>
     <row r="17">
@@ -4768,19 +4768,19 @@
         <v>54534</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41712</v>
+        <v>42242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65511</v>
+        <v>65904</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5902254694358798</v>
+        <v>0.5902254694358799</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4514537911504614</v>
+        <v>0.4571841370141108</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.70903028817235</v>
+        <v>0.7132869895060489</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -4789,19 +4789,19 @@
         <v>44824</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37147</v>
+        <v>36967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53462</v>
+        <v>53056</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5221414843202657</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4327093081343349</v>
+        <v>0.4306186294557238</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6227546162754202</v>
+        <v>0.6180240197513863</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>95</v>
@@ -4810,19 +4810,19 @@
         <v>99358</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>84830</v>
+        <v>85069</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>113085</v>
+        <v>114639</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5574339935871906</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4759238467235332</v>
+        <v>0.477269546195507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6344474609712323</v>
+        <v>0.643165771620567</v>
       </c>
     </row>
     <row r="18">
@@ -4914,19 +4914,19 @@
         <v>186922</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>163217</v>
+        <v>163306</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>212281</v>
+        <v>213135</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4008533523755654</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.350018509242834</v>
+        <v>0.3502080495676911</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4552353598814346</v>
+        <v>0.4570665158599631</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -4935,19 +4935,19 @@
         <v>176991</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>160120</v>
+        <v>159135</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>194926</v>
+        <v>194702</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4680098715969239</v>
+        <v>0.4680098715969237</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4233993488824917</v>
+        <v>0.4207960435658382</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5154366783637603</v>
+        <v>0.5148444170648494</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>377</v>
@@ -4956,19 +4956,19 @@
         <v>363913</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>332258</v>
+        <v>332188</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>393625</v>
+        <v>395959</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4309272488926465</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.393443495479832</v>
+        <v>0.393359946822677</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4661107485527036</v>
+        <v>0.4688748952939101</v>
       </c>
     </row>
     <row r="20">
@@ -4985,19 +4985,19 @@
         <v>279389</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254030</v>
+        <v>253176</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>303094</v>
+        <v>303005</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5991466476244345</v>
+        <v>0.5991466476244347</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5447646401185656</v>
+        <v>0.5429334841400368</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6499814907571668</v>
+        <v>0.649791950432309</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -5006,19 +5006,19 @@
         <v>201186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>183251</v>
+        <v>183475</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>218057</v>
+        <v>219042</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5319901284030762</v>
+        <v>0.5319901284030761</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4845633216362399</v>
+        <v>0.4851555829351505</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5766006511175082</v>
+        <v>0.5792039564341619</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>486</v>
@@ -5027,19 +5027,19 @@
         <v>480575</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>450863</v>
+        <v>448529</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>512230</v>
+        <v>512300</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5690727511073534</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5338892514472963</v>
+        <v>0.5311251047060901</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6065565045201677</v>
+        <v>0.6066400531773229</v>
       </c>
     </row>
     <row r="21">
